--- a/Public/people.xlsx
+++ b/Public/people.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>John</t>
   </si>
@@ -132,15 +132,6 @@
   </si>
   <si>
     <t>Lisbon</t>
-  </si>
-  <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -480,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,20 +649,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
